--- a/FantaSoccer/MyModule/SerieA/RealLineups_9.xlsx
+++ b/FantaSoccer/MyModule/SerieA/RealLineups_9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="322">
   <si>
     <t>Atalanta</t>
   </si>
@@ -88,6 +88,9 @@
     <t>B. Djimsiti</t>
   </si>
   <si>
+    <t>G. Gasperini</t>
+  </si>
+  <si>
     <t>M. de Roon</t>
   </si>
   <si>
@@ -118,9 +121,6 @@
     <t>S. Lammers</t>
   </si>
   <si>
-    <t>Amad Traore</t>
-  </si>
-  <si>
     <t>M. Ruggeri</t>
   </si>
   <si>
@@ -139,6 +139,9 @@
     <t>N. Sansone</t>
   </si>
   <si>
+    <t>S. Mihajlovic</t>
+  </si>
+  <si>
     <t>L. Skorupski</t>
   </si>
   <si>
@@ -163,6 +166,9 @@
     <t>A. Hickey</t>
   </si>
   <si>
+    <t>F. Inzaghi</t>
+  </si>
+  <si>
     <t>P. Hetemaj</t>
   </si>
   <si>
@@ -208,12 +214,12 @@
     <t>A. Tello</t>
   </si>
   <si>
-    <t>A. Tuia</t>
-  </si>
-  <si>
     <t>R. Klavan</t>
   </si>
   <si>
+    <t>E. Di Francesco</t>
+  </si>
+  <si>
     <t>L. Pavoletti</t>
   </si>
   <si>
@@ -313,15 +319,15 @@
     <t>M. Badelj</t>
   </si>
   <si>
+    <t>R. Maran</t>
+  </si>
+  <si>
     <t>E. Goldaniga</t>
   </si>
   <si>
     <t>M. Bani</t>
   </si>
   <si>
-    <t>V. Parigini</t>
-  </si>
-  <si>
     <t>M. Pjaca</t>
   </si>
   <si>
@@ -358,6 +364,9 @@
     <t>S. Handanovic</t>
   </si>
   <si>
+    <t>C. Eriksen</t>
+  </si>
+  <si>
     <t>M. Darmian</t>
   </si>
   <si>
@@ -370,6 +379,9 @@
     <t>R. Gagliardini</t>
   </si>
   <si>
+    <t>A. Conte</t>
+  </si>
+  <si>
     <t>N. Barella</t>
   </si>
   <si>
@@ -418,6 +430,9 @@
     <t>D. Kulusevski</t>
   </si>
   <si>
+    <t>A. Pirlo</t>
+  </si>
+  <si>
     <t>Luis Alberto</t>
   </si>
   <si>
@@ -460,18 +475,21 @@
     <t>J. Correa</t>
   </si>
   <si>
+    <t>S. Inzaghi</t>
+  </si>
+  <si>
     <t>M. Lazzari</t>
   </si>
   <si>
-    <t>A. Marusic</t>
-  </si>
-  <si>
     <t>L. Marrone</t>
   </si>
   <si>
     <t>A. Cordaz</t>
   </si>
   <si>
+    <t>G. Stroppa</t>
+  </si>
+  <si>
     <t>S. Molina</t>
   </si>
   <si>
@@ -514,6 +532,9 @@
     <t>S. Kjaer</t>
   </si>
   <si>
+    <t>S. Pioli</t>
+  </si>
+  <si>
     <t>A. Rebic</t>
   </si>
   <si>
@@ -547,6 +568,12 @@
     <t>A. Saelemaekers</t>
   </si>
   <si>
+    <t>J. Hauge</t>
+  </si>
+  <si>
+    <t>G. Gattuso</t>
+  </si>
+  <si>
     <t>G. Di Lorenzo</t>
   </si>
   <si>
@@ -577,6 +604,9 @@
     <t>Fabian Ruiz</t>
   </si>
   <si>
+    <t>E. Elmas</t>
+  </si>
+  <si>
     <t>H. Lozano</t>
   </si>
   <si>
@@ -610,6 +640,9 @@
     <t>V. Laurini</t>
   </si>
   <si>
+    <t>F. Liverani</t>
+  </si>
+  <si>
     <t>R. Gagliolo</t>
   </si>
   <si>
@@ -649,6 +682,9 @@
     <t>L. Spinazzola</t>
   </si>
   <si>
+    <t>Paulo Fonseca</t>
+  </si>
+  <si>
     <t>J. Veretout</t>
   </si>
   <si>
@@ -658,6 +694,9 @@
     <t>G. Mancini</t>
   </si>
   <si>
+    <t>Borja Mayoral</t>
+  </si>
+  <si>
     <t>Carles Perez</t>
   </si>
   <si>
@@ -685,6 +724,9 @@
     <t>L. Tonelli</t>
   </si>
   <si>
+    <t>C. Ranieri</t>
+  </si>
+  <si>
     <t>B. Bereszynski</t>
   </si>
   <si>
@@ -727,6 +769,9 @@
     <t>D. Berardi</t>
   </si>
   <si>
+    <t>R. De Zerbi</t>
+  </si>
+  <si>
     <t>J. Toljan</t>
   </si>
   <si>
@@ -757,9 +802,6 @@
     <t>M. Muldur</t>
   </si>
   <si>
-    <t>N. Schiappacase</t>
-  </si>
-  <si>
     <t>J. Sala</t>
   </si>
   <si>
@@ -769,6 +811,9 @@
     <t>C. Terzi</t>
   </si>
   <si>
+    <t>V. Italiano</t>
+  </si>
+  <si>
     <t>Diego Farias</t>
   </si>
   <si>
@@ -793,12 +838,12 @@
     <t>M. N'Zola</t>
   </si>
   <si>
+    <t>R. Piccoli</t>
+  </si>
+  <si>
     <t>J. Chabot</t>
   </si>
   <si>
-    <t>K. Agudelo</t>
-  </si>
-  <si>
     <t>Salvador Ferrer</t>
   </si>
   <si>
@@ -829,6 +874,9 @@
     <t>A. Belotti</t>
   </si>
   <si>
+    <t>M. Giampaolo</t>
+  </si>
+  <si>
     <t>S. Zaza</t>
   </si>
   <si>
@@ -856,6 +904,9 @@
     <t>B. Nuytinck</t>
   </si>
   <si>
+    <t>L. Gotti</t>
+  </si>
+  <si>
     <t>R. de Paul</t>
   </si>
   <si>
@@ -865,9 +916,6 @@
     <t>Samir</t>
   </si>
   <si>
-    <t>Walace</t>
-  </si>
-  <si>
     <t>J. Musso</t>
   </si>
   <si>
@@ -916,19 +964,22 @@
     <t>A. Favilli</t>
   </si>
   <si>
+    <t>I. Juric</t>
+  </si>
+  <si>
     <t>A. Barak</t>
   </si>
   <si>
     <t>E. Salcedo Mora</t>
   </si>
   <si>
+    <t>A. Danzi</t>
+  </si>
+  <si>
     <t>M. Lovato</t>
   </si>
   <si>
     <t>E. Colley</t>
-  </si>
-  <si>
-    <t>I. Ilic</t>
   </si>
 </sst>
 </file>
@@ -1365,58 +1416,58 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="O2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="P2" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="R2" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="S2" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="T2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="U2" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1430,58 +1481,58 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="Q3" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="R3" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="S3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="T3" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="U3" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1495,58 +1546,58 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="M4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="N4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="O4" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="P4" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="Q4" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="R4" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="S4" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="T4" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="U4" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1560,58 +1611,58 @@
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="N5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="O5" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="P5" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="Q5" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="R5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="S5" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="T5" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="U5" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1625,58 +1676,58 @@
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="M6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="N6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="Q6" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="R6" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="S6" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="T6" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="U6" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1690,58 +1741,58 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="N7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="R7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="S7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="T7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="U7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1755,58 +1806,58 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M8" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="N8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="O8" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="Q8" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="R8" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="S8" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="T8" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="U8" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1820,58 +1871,58 @@
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="N9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="O9" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="P9" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="Q9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="R9" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="S9" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="T9" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="U9" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1885,58 +1936,58 @@
         <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="N10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="P10" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="Q10" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="R10" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="S10" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="T10" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="U10" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1950,58 +2001,58 @@
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J11" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="N11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="O11" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="Q11" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="R11" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="S11" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="T11" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="U11" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2015,58 +2066,58 @@
         <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L12" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M12" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="N12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="O12" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="Q12" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="R12" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="S12" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="T12" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="U12" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2080,55 +2131,58 @@
         <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="H13" t="s">
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M13" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="N13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O13" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Q13" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="R13" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="S13" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="T13" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="U13" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2142,49 +2196,58 @@
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>162</v>
+        <v>167</v>
+      </c>
+      <c r="L14" t="s">
+        <v>183</v>
+      </c>
+      <c r="M14" t="s">
+        <v>197</v>
       </c>
       <c r="N14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O14" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="Q14" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="R14" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="S14" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="T14" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="U14" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2194,47 +2257,59 @@
       <c r="B15" t="s">
         <v>33</v>
       </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M15" t="s">
+        <v>198</v>
       </c>
       <c r="N15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="O15" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="P15" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="Q15" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="R15" t="s">
-        <v>261</v>
+        <v>275</v>
+      </c>
+      <c r="S15" t="s">
+        <v>291</v>
       </c>
       <c r="T15" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="U15" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2245,37 +2320,46 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="N16" t="s">
-        <v>203</v>
+        <v>213</v>
+      </c>
+      <c r="O16" t="s">
+        <v>228</v>
       </c>
       <c r="P16" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="Q16" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="R16" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="U16" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2283,16 +2367,34 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s">
+        <v>214</v>
+      </c>
+      <c r="O17" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" t="s">
+        <v>245</v>
       </c>
       <c r="Q17" t="s">
-        <v>247</v>
+        <v>261</v>
+      </c>
+      <c r="R17" t="s">
+        <v>277</v>
+      </c>
+      <c r="U17" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
